--- a/va_facility_data_2025-02-20/Chillicothe VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Chillicothe%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chillicothe VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Chillicothe%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R5d57bf1477804a18aadead8793a52db8"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Re5a52fad6dc34c47ac809a3d4718cbf8"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R98af1db7c7414b65ba5721a062ce7c64"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rad204cc57f6e46d5bd3a821440be3fbd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4a75e893cb864123ae9233f980c66b9f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R60092695843943f086a1e199dd4f41ed"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf83908d2197f4077b0ea1557fc2caa6c"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R5b26bc5b179e4238850042876ee5afaa"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R73691060593746bc8957ea6bd743bdcb"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R57358eeabe554771a4b0552820ad76d1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcf88dfa5112e45ef992f6b4803fe3a5b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9cebed328dba493d8bca2a79c1f68fc4"/>
   </x:sheets>
 </x:workbook>
 </file>
